--- a/Detsad/detsadmoscow.xlsx
+++ b/Detsad/detsadmoscow.xlsx
@@ -9990,7 +9990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1925"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1891" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
